--- a/評価/Java評価シート.xlsx
+++ b/評価/Java評価シート.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20357"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2016025\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\授業\java言語\Java\評価\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1941BB5D-23D1-465B-BBA6-A1EE1181C14B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B138E2B-ECD9-46BB-A2C2-C5E8BE00C2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{0E8A7E95-8DBC-4735-BB1D-111344334246}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0E8A7E95-8DBC-4735-BB1D-111344334246}"/>
   </bookViews>
   <sheets>
     <sheet name="評価シート" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,25 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">評価シート!$B$2:$H$34</definedName>
     <definedName name="student">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191028" concurrentManualCount="2"/>
+  <calcPr calcId="191029" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>評価シート</t>
     <rPh sb="0" eb="2">
@@ -110,6 +118,327 @@
     </rPh>
     <rPh sb="21" eb="24">
       <t>ナガトミシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例と同じだった</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>技を選択して攻撃できるのがよかった</t>
+    <rPh sb="0" eb="1">
+      <t>ワザ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一回一回選択できるのがよかった</t>
+    <rPh sb="0" eb="4">
+      <t>イッカイイッカイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>面白い発想でした</t>
+    <rPh sb="0" eb="2">
+      <t>オモシロ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いろいろな漫画の登場人物が出て驚いた</t>
+    <rPh sb="5" eb="7">
+      <t>マンガ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>トウジョウジンブツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オドロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択した番号でキャラが決まるのがよかった</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１文字づつ出てくるのがよかった</t>
+    <rPh sb="1" eb="3">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セリフが変わっていてよかった</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>与えたダメージが見れるのがよかった</t>
+    <rPh sb="0" eb="1">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相棒のダメージが固定なのでわかりやすかった</t>
+    <rPh sb="0" eb="2">
+      <t>アイボウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポケモンみたいでよかった</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字の数でダメージが変わるのがよかった</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計のダメージが見れるのがよかった</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相棒を決めれるのがよかった</t>
+    <rPh sb="0" eb="2">
+      <t>アイボウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>買った後にセリフがあるのがよかった</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータスが見れるのがよかった</t>
+    <rPh sb="6" eb="7">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃を選択させてほしかった</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例とほとんど同じだった</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定はあれだったけどいい発想でした</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前とか入力できれば面白そう</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オモシロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択した後の結果がないので気になります</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダンジョン攻略感があってよかった</t>
+    <rPh sb="5" eb="7">
+      <t>コウリャク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウィザードリィ感があってよかった</t>
+    <rPh sb="7" eb="8">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほとんど例と同じだった</t>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択肢で封建に行く場所が決まるのがよかった</t>
+    <rPh sb="0" eb="3">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホウケン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦闘時に継続するか聞いてくるのがよかった</t>
+    <rPh sb="0" eb="3">
+      <t>セントウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイゾク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダンジョンのマップが見れるのがよかった</t>
+    <rPh sb="10" eb="11">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もっと選択肢があると面白いと思う</t>
+    <rPh sb="3" eb="6">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オモシロ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経験値が手に入るのがよかった</t>
+    <rPh sb="0" eb="3">
+      <t>ケイケンチ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポケモンみたいでよかった面白かった</t>
+    <rPh sb="12" eb="14">
+      <t>オモシロ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -595,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051087C3-3056-48C7-BDD0-432C753CC606}">
   <dimension ref="B2:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -664,7 +993,9 @@
         <f>SUM(C5:F5)</f>
         <v>7</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7">
@@ -686,7 +1017,9 @@
         <f t="shared" ref="G6:G34" si="0">SUM(C6:F6)</f>
         <v>12</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="7">
@@ -708,7 +1041,9 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -730,7 +1065,9 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7">
@@ -752,7 +1089,9 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7">
@@ -774,7 +1113,9 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="H10" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
@@ -796,7 +1137,9 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H11" s="8"/>
+      <c r="H11" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7">
@@ -818,7 +1161,9 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7">
@@ -840,7 +1185,9 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="10">
@@ -862,7 +1209,9 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="H14" s="11"/>
+      <c r="H14" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4">
@@ -884,7 +1233,9 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="H15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="7">
@@ -906,7 +1257,9 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="H16" s="8"/>
+      <c r="H16" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="17" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="7">
@@ -928,7 +1281,9 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H17" s="8"/>
+      <c r="H17" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="18" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="7">
@@ -950,7 +1305,9 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="7">
@@ -972,7 +1329,9 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="H19" s="8"/>
+      <c r="H19" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="20" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="7">
@@ -994,7 +1353,9 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="H20" s="8"/>
+      <c r="H20" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="21" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="7">
@@ -1016,7 +1377,9 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="H21" s="8"/>
+      <c r="H21" s="8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="22" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="7">
@@ -1038,7 +1401,9 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H22" s="8"/>
+      <c r="H22" s="8" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="23" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="7">
@@ -1060,7 +1425,9 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="H23" s="8"/>
+      <c r="H23" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="24" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="10">
@@ -1082,7 +1449,9 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H24" s="11"/>
+      <c r="H24" s="11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="25" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="4">
@@ -1104,7 +1473,9 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="H25" s="5"/>
+      <c r="H25" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="26" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7">
@@ -1126,7 +1497,9 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="H26" s="8"/>
+      <c r="H26" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="27" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="7">
@@ -1148,7 +1521,9 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="H27" s="8"/>
+      <c r="H27" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="28" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="7">
@@ -1170,7 +1545,9 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H28" s="8"/>
+      <c r="H28" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="29" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7">
@@ -1192,7 +1569,9 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="H29" s="8"/>
+      <c r="H29" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="30" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="7">
@@ -1214,7 +1593,9 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="H30" s="8"/>
+      <c r="H30" s="8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="31" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="7">
@@ -1236,7 +1617,9 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="H31" s="8"/>
+      <c r="H31" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="32" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="7">
@@ -1258,7 +1641,9 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="H32" s="8"/>
+      <c r="H32" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="33" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="7">
@@ -1268,19 +1653,21 @@
         <v>3</v>
       </c>
       <c r="D33" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E33" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33" s="8">
         <v>3</v>
       </c>
       <c r="G33" s="9">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H33" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="34" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="10">
@@ -1302,7 +1689,9 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="H34" s="11"/>
+      <c r="H34" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
@@ -1597,15 +1986,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="0c73c1f5-50cd-4477-a315-44bef7b8a847" xsi:nil="true"/>
@@ -1614,6 +1994,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1636,14 +2025,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0CB4B02-D7E0-4D9E-931C-462337C033ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88BFF4CC-80C2-428A-9295-322324891C5F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1652,4 +2033,12 @@
     <ds:schemaRef ds:uri="aaa52e1c-8772-4366-aa63-bf636c80ebd4"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0CB4B02-D7E0-4D9E-931C-462337C033ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>